--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il12a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Il12a</t>
+  </si>
+  <si>
+    <t>Il12rb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il12a</t>
-  </si>
-  <si>
-    <t>Il12rb1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.08701700000000001</v>
+        <v>1.574655333333333</v>
       </c>
       <c r="H2">
-        <v>0.261051</v>
+        <v>4.723966</v>
       </c>
       <c r="I2">
-        <v>0.04031137775592571</v>
+        <v>0.805795973174511</v>
       </c>
       <c r="J2">
-        <v>0.04031137775592571</v>
+        <v>0.8057959731745109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.157372</v>
+        <v>0.07429999999999999</v>
       </c>
       <c r="N2">
-        <v>0.472116</v>
+        <v>0.2229</v>
       </c>
       <c r="O2">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="P2">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="Q2">
-        <v>0.013694039324</v>
+        <v>0.1169968912666667</v>
       </c>
       <c r="R2">
-        <v>0.123246353916</v>
+        <v>1.0529720214</v>
       </c>
       <c r="S2">
-        <v>0.006545568562464573</v>
+        <v>0.06833253151442326</v>
       </c>
       <c r="T2">
-        <v>0.006545568562464574</v>
+        <v>0.06833253151442324</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.08701700000000001</v>
+        <v>1.574655333333333</v>
       </c>
       <c r="H3">
-        <v>0.261051</v>
+        <v>4.723966</v>
       </c>
       <c r="I3">
-        <v>0.04031137775592571</v>
+        <v>0.805795973174511</v>
       </c>
       <c r="J3">
-        <v>0.04031137775592571</v>
+        <v>0.8057959731745109</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.883723</v>
       </c>
       <c r="O3">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="P3">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="Q3">
-        <v>0.05463864143033334</v>
+        <v>0.9887381561575554</v>
       </c>
       <c r="R3">
-        <v>0.4917477728730001</v>
+        <v>8.898643405417999</v>
       </c>
       <c r="S3">
-        <v>0.02611654349607184</v>
+        <v>0.5774767216776309</v>
       </c>
       <c r="T3">
-        <v>0.02611654349607184</v>
+        <v>0.5774767216776308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G4">
-        <v>0.08701700000000001</v>
+        <v>1.574655333333333</v>
       </c>
       <c r="H4">
-        <v>0.261051</v>
+        <v>4.723966</v>
       </c>
       <c r="I4">
-        <v>0.04031137775592571</v>
+        <v>0.805795973174511</v>
       </c>
       <c r="J4">
-        <v>0.04031137775592571</v>
+        <v>0.8057959731745109</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1839076666666667</v>
+        <v>0.1739583333333333</v>
       </c>
       <c r="N4">
-        <v>0.5517230000000001</v>
+        <v>0.521875</v>
       </c>
       <c r="O4">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="P4">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="Q4">
-        <v>0.01600309343033334</v>
+        <v>0.2739244173611111</v>
       </c>
       <c r="R4">
-        <v>0.1440278408730001</v>
+        <v>2.46531975625</v>
       </c>
       <c r="S4">
-        <v>0.007649265697389292</v>
+        <v>0.1599867199824569</v>
       </c>
       <c r="T4">
-        <v>0.007649265697389291</v>
+        <v>0.1599867199824568</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.574655333333333</v>
+        <v>0.379506</v>
       </c>
       <c r="H5">
-        <v>4.723966</v>
+        <v>1.138518</v>
       </c>
       <c r="I5">
-        <v>0.7294727004767241</v>
+        <v>0.194204026825489</v>
       </c>
       <c r="J5">
-        <v>0.7294727004767241</v>
+        <v>0.194204026825489</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.157372</v>
+        <v>0.07429999999999999</v>
       </c>
       <c r="N5">
-        <v>0.472116</v>
+        <v>0.2229</v>
       </c>
       <c r="O5">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="P5">
-        <v>0.1623752133230521</v>
+        <v>0.08480128194885443</v>
       </c>
       <c r="Q5">
-        <v>0.2478066591173333</v>
+        <v>0.02819729579999999</v>
       </c>
       <c r="R5">
-        <v>2.230259932056</v>
+        <v>0.2537756622</v>
       </c>
       <c r="S5">
-        <v>0.1184482853532509</v>
+        <v>0.01646875043443118</v>
       </c>
       <c r="T5">
-        <v>0.118448285353251</v>
+        <v>0.01646875043443118</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.574655333333333</v>
+        <v>0.379506</v>
       </c>
       <c r="H6">
-        <v>4.723966</v>
+        <v>1.138518</v>
       </c>
       <c r="I6">
-        <v>0.7294727004767241</v>
+        <v>0.194204026825489</v>
       </c>
       <c r="J6">
-        <v>0.7294727004767241</v>
+        <v>0.194204026825489</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>1.883723</v>
       </c>
       <c r="O6">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="P6">
-        <v>0.6478702775727568</v>
+        <v>0.7166537695672586</v>
       </c>
       <c r="Q6">
-        <v>0.9887381561575554</v>
+        <v>0.238294726946</v>
       </c>
       <c r="R6">
-        <v>8.898643405417999</v>
+        <v>2.144652542514</v>
       </c>
       <c r="S6">
-        <v>0.4726036809396038</v>
+        <v>0.1391770478896277</v>
       </c>
       <c r="T6">
-        <v>0.4726036809396038</v>
+        <v>0.1391770478896277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +829,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.574655333333333</v>
+        <v>0.379506</v>
       </c>
       <c r="H7">
-        <v>4.723966</v>
+        <v>1.138518</v>
       </c>
       <c r="I7">
-        <v>0.7294727004767241</v>
+        <v>0.194204026825489</v>
       </c>
       <c r="J7">
-        <v>0.7294727004767241</v>
+        <v>0.194204026825489</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1839076666666667</v>
+        <v>0.1739583333333333</v>
       </c>
       <c r="N7">
-        <v>0.5517230000000001</v>
+        <v>0.521875</v>
       </c>
       <c r="O7">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="P7">
-        <v>0.1897545091041911</v>
+        <v>0.198544948483887</v>
       </c>
       <c r="Q7">
-        <v>0.2895911881575556</v>
+        <v>0.06601823124999999</v>
       </c>
       <c r="R7">
-        <v>2.606320693418</v>
+        <v>0.59416408125</v>
       </c>
       <c r="S7">
-        <v>0.1384207341838694</v>
+        <v>0.03855822850143012</v>
       </c>
       <c r="T7">
-        <v>0.1384207341838694</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.496949</v>
-      </c>
-      <c r="H8">
-        <v>1.490847</v>
-      </c>
-      <c r="I8">
-        <v>0.2302159217673503</v>
-      </c>
-      <c r="J8">
-        <v>0.2302159217673503</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.157372</v>
-      </c>
-      <c r="N8">
-        <v>0.472116</v>
-      </c>
-      <c r="O8">
-        <v>0.1623752133230521</v>
-      </c>
-      <c r="P8">
-        <v>0.1623752133230521</v>
-      </c>
-      <c r="Q8">
-        <v>0.07820585802799999</v>
-      </c>
-      <c r="R8">
-        <v>0.703852722252</v>
-      </c>
-      <c r="S8">
-        <v>0.03738135940733658</v>
-      </c>
-      <c r="T8">
-        <v>0.03738135940733658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.496949</v>
-      </c>
-      <c r="H9">
-        <v>1.490847</v>
-      </c>
-      <c r="I9">
-        <v>0.2302159217673503</v>
-      </c>
-      <c r="J9">
-        <v>0.2302159217673503</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.6279076666666666</v>
-      </c>
-      <c r="N9">
-        <v>1.883723</v>
-      </c>
-      <c r="O9">
-        <v>0.6478702775727568</v>
-      </c>
-      <c r="P9">
-        <v>0.6478702775727568</v>
-      </c>
-      <c r="Q9">
-        <v>0.3120380870423333</v>
-      </c>
-      <c r="R9">
-        <v>2.808342783381</v>
-      </c>
-      <c r="S9">
-        <v>0.1491500531370813</v>
-      </c>
-      <c r="T9">
-        <v>0.1491500531370813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.496949</v>
-      </c>
-      <c r="H10">
-        <v>1.490847</v>
-      </c>
-      <c r="I10">
-        <v>0.2302159217673503</v>
-      </c>
-      <c r="J10">
-        <v>0.2302159217673503</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.1839076666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.5517230000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.1897545091041911</v>
-      </c>
-      <c r="P10">
-        <v>0.1897545091041911</v>
-      </c>
-      <c r="Q10">
-        <v>0.09139273104233335</v>
-      </c>
-      <c r="R10">
-        <v>0.8225345793810002</v>
-      </c>
-      <c r="S10">
-        <v>0.04368450922293243</v>
-      </c>
-      <c r="T10">
-        <v>0.04368450922293241</v>
+        <v>0.03855822850143011</v>
       </c>
     </row>
   </sheetData>
